--- a/libertadores/datasets_liberta/confrontos_fase_1_libertadores.xlsx
+++ b/libertadores/datasets_liberta/confrontos_fase_1_libertadores.xlsx
@@ -181,7 +181,7 @@
     <t>Mau Humor F.C.</t>
   </si>
   <si>
-    <t>BORGES ITAQUI F.C.</t>
+    <t>Grêmio imortal 36</t>
   </si>
   <si>
     <t>Fedato Futebol Clube</t>
@@ -842,7 +842,7 @@
         <v>55</v>
       </c>
       <c r="F9">
-        <v>3914981</v>
+        <v>24856400</v>
       </c>
       <c r="G9" t="s">
         <v>70</v>
@@ -1264,7 +1264,7 @@
         <v>55</v>
       </c>
       <c r="H25">
-        <v>3914981</v>
+        <v>24856400</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1654,7 +1654,7 @@
         <v>55</v>
       </c>
       <c r="H40">
-        <v>3914981</v>
+        <v>24856400</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2090,7 +2090,7 @@
         <v>55</v>
       </c>
       <c r="F57">
-        <v>3914981</v>
+        <v>24856400</v>
       </c>
       <c r="G57" t="s">
         <v>71</v>
@@ -2480,7 +2480,7 @@
         <v>55</v>
       </c>
       <c r="F72">
-        <v>3914981</v>
+        <v>24856400</v>
       </c>
       <c r="G72" t="s">
         <v>54</v>
@@ -2902,7 +2902,7 @@
         <v>55</v>
       </c>
       <c r="H88">
-        <v>3914981</v>
+        <v>24856400</v>
       </c>
     </row>
     <row r="89" spans="1:8">
